--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3535282.69547173</v>
+        <v>3532875.841010928</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>578341.2189755028</v>
+        <v>578341.2189755032</v>
       </c>
     </row>
     <row r="9">
@@ -1376,16 +1376,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.723616015232</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>120.8005049610259</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
@@ -1433,7 +1433,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1546,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444501</v>
       </c>
       <c r="D14" t="n">
-        <v>20.94922849983744</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>312.2711367355917</v>
+        <v>312.2711367355918</v>
       </c>
       <c r="C17" t="n">
-        <v>294.8101868431186</v>
+        <v>294.8101868431187</v>
       </c>
       <c r="D17" t="n">
-        <v>284.220336692794</v>
+        <v>284.2203366927941</v>
       </c>
       <c r="E17" t="n">
-        <v>311.4676651443729</v>
+        <v>311.467665144373</v>
       </c>
       <c r="F17" t="n">
-        <v>336.4133408138225</v>
+        <v>336.4133408138226</v>
       </c>
       <c r="G17" t="n">
-        <v>340.4590207255645</v>
+        <v>340.4590207255646</v>
       </c>
       <c r="H17" t="n">
-        <v>224.1450594594316</v>
+        <v>224.1450594594317</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.72505686028867</v>
+        <v>38.72505686028701</v>
       </c>
       <c r="T17" t="n">
-        <v>133.4552652117312</v>
+        <v>133.4552652117314</v>
       </c>
       <c r="U17" t="n">
-        <v>180.5324670310131</v>
+        <v>180.5324670310132</v>
       </c>
       <c r="V17" t="n">
-        <v>257.289553542246</v>
+        <v>257.2895535422461</v>
       </c>
       <c r="W17" t="n">
-        <v>278.7782637895241</v>
+        <v>278.7782637895242</v>
       </c>
       <c r="X17" t="n">
-        <v>299.2683957505801</v>
+        <v>299.2683957505802</v>
       </c>
       <c r="Y17" t="n">
-        <v>315.7752337281647</v>
+        <v>315.7752337281648</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.3692752540484</v>
+        <v>109.3692752540485</v>
       </c>
       <c r="C19" t="n">
-        <v>96.78411617073891</v>
+        <v>96.78411617073901</v>
       </c>
       <c r="D19" t="n">
-        <v>78.15276809032343</v>
+        <v>78.15276809032353</v>
       </c>
       <c r="E19" t="n">
-        <v>75.97125771868025</v>
+        <v>75.97125771868035</v>
       </c>
       <c r="F19" t="n">
-        <v>82.43678484472323</v>
+        <v>74.95834309504242</v>
       </c>
       <c r="G19" t="n">
-        <v>95.5631033311393</v>
+        <v>95.5631033311394</v>
       </c>
       <c r="H19" t="n">
-        <v>74.29230998643186</v>
+        <v>74.29230998643196</v>
       </c>
       <c r="I19" t="n">
-        <v>25.88971548194919</v>
+        <v>25.88971548194929</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.46944774215842</v>
+        <v>18.46944774215852</v>
       </c>
       <c r="S19" t="n">
-        <v>119.306320403553</v>
+        <v>119.3063204035531</v>
       </c>
       <c r="T19" t="n">
-        <v>149.0862443482803</v>
+        <v>149.0862443482804</v>
       </c>
       <c r="U19" t="n">
-        <v>215.7491332777239</v>
+        <v>215.749133277724</v>
       </c>
       <c r="V19" t="n">
-        <v>181.6749383959391</v>
+        <v>181.6749383959392</v>
       </c>
       <c r="W19" t="n">
-        <v>216.0602934087021</v>
+        <v>223.5387351583818</v>
       </c>
       <c r="X19" t="n">
-        <v>155.2469504611482</v>
+        <v>155.2469504611483</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.1219484242059</v>
+        <v>148.121948424206</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>312.2711367355917</v>
+        <v>312.2711367355918</v>
       </c>
       <c r="C20" t="n">
-        <v>294.8101868431186</v>
+        <v>294.8101868431187</v>
       </c>
       <c r="D20" t="n">
-        <v>284.220336692794</v>
+        <v>284.2203366927941</v>
       </c>
       <c r="E20" t="n">
-        <v>311.4676651443729</v>
+        <v>311.467665144373</v>
       </c>
       <c r="F20" t="n">
-        <v>336.4133408138225</v>
+        <v>336.4133408138226</v>
       </c>
       <c r="G20" t="n">
-        <v>340.4590207255645</v>
+        <v>340.4590207255646</v>
       </c>
       <c r="H20" t="n">
-        <v>224.1450594594316</v>
+        <v>224.1450594594317</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.72505686028693</v>
+        <v>38.72505686028701</v>
       </c>
       <c r="T20" t="n">
-        <v>133.4552652117312</v>
+        <v>133.4552652117314</v>
       </c>
       <c r="U20" t="n">
-        <v>180.5324670310131</v>
+        <v>180.5324670310132</v>
       </c>
       <c r="V20" t="n">
-        <v>257.289553542246</v>
+        <v>257.2895535422461</v>
       </c>
       <c r="W20" t="n">
-        <v>278.7782637895241</v>
+        <v>278.7782637895242</v>
       </c>
       <c r="X20" t="n">
-        <v>299.2683957505801</v>
+        <v>299.2683957505802</v>
       </c>
       <c r="Y20" t="n">
-        <v>315.7752337281647</v>
+        <v>315.7752337281648</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.3692752540484</v>
+        <v>109.3692752540485</v>
       </c>
       <c r="C22" t="n">
-        <v>96.78411617073891</v>
+        <v>96.78411617073901</v>
       </c>
       <c r="D22" t="n">
-        <v>78.15276809032343</v>
+        <v>78.15276809032353</v>
       </c>
       <c r="E22" t="n">
-        <v>75.97125771868025</v>
+        <v>75.97125771868035</v>
       </c>
       <c r="F22" t="n">
-        <v>74.95834309504232</v>
+        <v>74.95834309504242</v>
       </c>
       <c r="G22" t="n">
-        <v>95.5631033311393</v>
+        <v>95.5631033311394</v>
       </c>
       <c r="H22" t="n">
-        <v>81.77075173611279</v>
+        <v>74.29230998643196</v>
       </c>
       <c r="I22" t="n">
-        <v>25.88971548194919</v>
+        <v>25.88971548194929</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.46944774215842</v>
+        <v>18.46944774215852</v>
       </c>
       <c r="S22" t="n">
-        <v>119.306320403553</v>
+        <v>119.3063204035531</v>
       </c>
       <c r="T22" t="n">
-        <v>149.0862443482803</v>
+        <v>156.5646860979599</v>
       </c>
       <c r="U22" t="n">
-        <v>215.7491332777239</v>
+        <v>215.749133277724</v>
       </c>
       <c r="V22" t="n">
-        <v>181.6749383959391</v>
+        <v>181.6749383959392</v>
       </c>
       <c r="W22" t="n">
-        <v>216.0602934087021</v>
+        <v>216.0602934087022</v>
       </c>
       <c r="X22" t="n">
-        <v>155.2469504611482</v>
+        <v>155.2469504611483</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.1219484242059</v>
+        <v>148.121948424206</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>312.2711367355917</v>
+        <v>312.2711367355918</v>
       </c>
       <c r="C23" t="n">
-        <v>294.8101868431186</v>
+        <v>294.8101868431187</v>
       </c>
       <c r="D23" t="n">
-        <v>284.220336692794</v>
+        <v>284.2203366927941</v>
       </c>
       <c r="E23" t="n">
-        <v>311.4676651443729</v>
+        <v>311.467665144373</v>
       </c>
       <c r="F23" t="n">
-        <v>336.4133408138225</v>
+        <v>336.4133408138226</v>
       </c>
       <c r="G23" t="n">
-        <v>340.4590207255645</v>
+        <v>340.4590207255646</v>
       </c>
       <c r="H23" t="n">
-        <v>224.1450594594315</v>
+        <v>224.1450594594316</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.72505686028693</v>
+        <v>38.72505686028703</v>
       </c>
       <c r="T23" t="n">
-        <v>133.4552652117312</v>
+        <v>133.4552652117313</v>
       </c>
       <c r="U23" t="n">
         <v>180.5324670310131</v>
       </c>
       <c r="V23" t="n">
-        <v>257.289553542246</v>
+        <v>257.2895535422461</v>
       </c>
       <c r="W23" t="n">
-        <v>278.7782637895241</v>
+        <v>278.7782637895242</v>
       </c>
       <c r="X23" t="n">
-        <v>299.2683957505801</v>
+        <v>299.2683957505802</v>
       </c>
       <c r="Y23" t="n">
-        <v>315.7752337281647</v>
+        <v>315.7752337281648</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109.3692752540484</v>
+        <v>109.3692752540485</v>
       </c>
       <c r="C25" t="n">
-        <v>96.78411617073891</v>
+        <v>96.78411617073901</v>
       </c>
       <c r="D25" t="n">
-        <v>78.15276809032343</v>
+        <v>78.15276809032353</v>
       </c>
       <c r="E25" t="n">
-        <v>75.97125771868025</v>
+        <v>75.97125771868035</v>
       </c>
       <c r="F25" t="n">
-        <v>74.95834309504232</v>
+        <v>74.95834309504242</v>
       </c>
       <c r="G25" t="n">
-        <v>95.5631033311393</v>
+        <v>95.5631033311394</v>
       </c>
       <c r="H25" t="n">
-        <v>74.29230998643186</v>
+        <v>74.29230998643196</v>
       </c>
       <c r="I25" t="n">
-        <v>25.88971548194919</v>
+        <v>25.88971548194929</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.46944774215842</v>
+        <v>25.9478894918381</v>
       </c>
       <c r="S25" t="n">
-        <v>126.7847621532339</v>
+        <v>119.3063204035531</v>
       </c>
       <c r="T25" t="n">
-        <v>149.0862443482803</v>
+        <v>149.0862443482804</v>
       </c>
       <c r="U25" t="n">
-        <v>215.7491332777239</v>
+        <v>215.749133277724</v>
       </c>
       <c r="V25" t="n">
-        <v>181.6749383959391</v>
+        <v>181.6749383959392</v>
       </c>
       <c r="W25" t="n">
-        <v>216.0602934087021</v>
+        <v>216.0602934087022</v>
       </c>
       <c r="X25" t="n">
-        <v>155.2469504611482</v>
+        <v>155.2469504611483</v>
       </c>
       <c r="Y25" t="n">
-        <v>148.1219484242059</v>
+        <v>148.121948424206</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124621</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124623</v>
+        <v>49.3772837912454</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>312.2711367355918</v>
+        <v>312.2711367355917</v>
       </c>
       <c r="C35" t="n">
         <v>294.8101868431187</v>
@@ -3272,7 +3272,7 @@
         <v>284.2203366927941</v>
       </c>
       <c r="E35" t="n">
-        <v>311.467665144373</v>
+        <v>311.4676651443729</v>
       </c>
       <c r="F35" t="n">
         <v>336.4133408138226</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.72505686028704</v>
+        <v>38.725056860287</v>
       </c>
       <c r="T35" t="n">
-        <v>133.4552652117314</v>
+        <v>133.4552652117313</v>
       </c>
       <c r="U35" t="n">
-        <v>180.5324670310132</v>
+        <v>180.5324670310131</v>
       </c>
       <c r="V35" t="n">
-        <v>257.2895535422461</v>
+        <v>257.289553542246</v>
       </c>
       <c r="W35" t="n">
-        <v>278.7782637895242</v>
+        <v>278.7782637895241</v>
       </c>
       <c r="X35" t="n">
         <v>299.2683957505802</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.7752337281648</v>
+        <v>315.7752337281647</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.3692752540485</v>
+        <v>109.3692752540484</v>
       </c>
       <c r="C37" t="n">
-        <v>96.78411617073903</v>
+        <v>96.78411617073898</v>
       </c>
       <c r="D37" t="n">
-        <v>78.15276809032355</v>
+        <v>78.15276809032351</v>
       </c>
       <c r="E37" t="n">
-        <v>75.97125771868036</v>
+        <v>75.97125771868032</v>
       </c>
       <c r="F37" t="n">
-        <v>74.95834309504244</v>
+        <v>74.95834309504239</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56310333113942</v>
+        <v>95.56310333113937</v>
       </c>
       <c r="H37" t="n">
-        <v>74.29230998643197</v>
+        <v>74.29230998643193</v>
       </c>
       <c r="I37" t="n">
-        <v>25.8897154819493</v>
+        <v>25.88971548194926</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46944774215854</v>
+        <v>18.46944774215849</v>
       </c>
       <c r="S37" t="n">
-        <v>126.7847621532323</v>
+        <v>119.306320403553</v>
       </c>
       <c r="T37" t="n">
-        <v>149.0862443482804</v>
+        <v>156.5646860979604</v>
       </c>
       <c r="U37" t="n">
         <v>215.749133277724</v>
       </c>
       <c r="V37" t="n">
-        <v>181.6749383959392</v>
+        <v>181.6749383959391</v>
       </c>
       <c r="W37" t="n">
-        <v>216.0602934087022</v>
+        <v>216.0602934087021</v>
       </c>
       <c r="X37" t="n">
         <v>155.2469504611483</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.121948424206</v>
+        <v>148.1219484242059</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>312.2711367355918</v>
+        <v>312.2711367355917</v>
       </c>
       <c r="C38" t="n">
         <v>294.8101868431187</v>
@@ -3509,7 +3509,7 @@
         <v>284.2203366927941</v>
       </c>
       <c r="E38" t="n">
-        <v>311.467665144373</v>
+        <v>311.4676651443729</v>
       </c>
       <c r="F38" t="n">
         <v>336.4133408138226</v>
@@ -3518,7 +3518,7 @@
         <v>340.4590207255646</v>
       </c>
       <c r="H38" t="n">
-        <v>224.1450594594317</v>
+        <v>224.1450594594316</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.72505686028704</v>
+        <v>38.72505686028701</v>
       </c>
       <c r="T38" t="n">
-        <v>133.4552652117314</v>
+        <v>133.4552652117313</v>
       </c>
       <c r="U38" t="n">
-        <v>180.5324670310132</v>
+        <v>180.5324670310131</v>
       </c>
       <c r="V38" t="n">
-        <v>257.2895535422461</v>
+        <v>257.289553542246</v>
       </c>
       <c r="W38" t="n">
-        <v>278.778263789524</v>
+        <v>278.7782637895241</v>
       </c>
       <c r="X38" t="n">
         <v>299.2683957505802</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.7752337281648</v>
+        <v>315.7752337281647</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.3692752540485</v>
+        <v>109.3692752540484</v>
       </c>
       <c r="C40" t="n">
-        <v>96.78411617073903</v>
+        <v>96.78411617073898</v>
       </c>
       <c r="D40" t="n">
-        <v>78.15276809032355</v>
+        <v>78.15276809032351</v>
       </c>
       <c r="E40" t="n">
-        <v>75.97125771868036</v>
+        <v>75.97125771868032</v>
       </c>
       <c r="F40" t="n">
-        <v>74.95834309504244</v>
+        <v>74.95834309504239</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56310333113942</v>
+        <v>95.56310333113937</v>
       </c>
       <c r="H40" t="n">
-        <v>74.29230998643197</v>
+        <v>74.29230998643193</v>
       </c>
       <c r="I40" t="n">
-        <v>25.8897154819493</v>
+        <v>25.88971548194926</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46944774215854</v>
+        <v>18.46944774215849</v>
       </c>
       <c r="S40" t="n">
-        <v>119.3063204035531</v>
+        <v>119.306320403553</v>
       </c>
       <c r="T40" t="n">
-        <v>149.0862443482804</v>
+        <v>149.0862443482803</v>
       </c>
       <c r="U40" t="n">
         <v>215.749133277724</v>
       </c>
       <c r="V40" t="n">
-        <v>181.6749383959392</v>
+        <v>181.6749383959391</v>
       </c>
       <c r="W40" t="n">
-        <v>216.0602934087022</v>
+        <v>216.0602934087021</v>
       </c>
       <c r="X40" t="n">
         <v>155.2469504611483</v>
@@ -3740,19 +3740,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>223.9073041019288</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>213.5060897741285</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797657</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3977,22 +3977,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>180.3615956913139</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>296.2842774481093</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797711</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1522.736669656749</v>
+        <v>1627.383644777218</v>
       </c>
       <c r="C11" t="n">
-        <v>1201.22378566441</v>
+        <v>1305.87076078488</v>
       </c>
       <c r="D11" t="n">
-        <v>890.4077200057329</v>
+        <v>995.0546951262024</v>
       </c>
       <c r="E11" t="n">
-        <v>552.069100355562</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>188.5328285140278</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.52497783108</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2835.911723435583</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2530.592701113542</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2204.576575800535</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="Y11" t="n">
-        <v>1861.886876772797</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315255</v>
@@ -5203,7 +5203,7 @@
         <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.697886033711</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,13 +5218,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1728.817513434839</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>1407.304629442501</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>3041.992567213673</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2736.673544891632</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2410.657419578626</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>2067.967720550888</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052944</v>
+        <v>759.466249805295</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254614</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611984</v>
+        <v>535.312693361199</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268792</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770421</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.155714499834</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657651</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328088</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337116</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5449,10 +5449,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5470,16 +5470,16 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X16" t="n">
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1883.980124852697</v>
+        <v>1883.980124852698</v>
       </c>
       <c r="C17" t="n">
         <v>1586.192057334396</v>
       </c>
       <c r="D17" t="n">
-        <v>1299.100808149755</v>
+        <v>1299.100808149756</v>
       </c>
       <c r="E17" t="n">
-        <v>984.487004973621</v>
+        <v>984.4870049736214</v>
       </c>
       <c r="F17" t="n">
-        <v>644.6755496061235</v>
+        <v>644.6755496061238</v>
       </c>
       <c r="G17" t="n">
-        <v>300.77754887323</v>
+        <v>300.7775488732302</v>
       </c>
       <c r="H17" t="n">
-        <v>74.36839790410725</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="I17" t="n">
-        <v>74.36839790410725</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J17" t="n">
         <v>430.6531778834857</v>
       </c>
       <c r="K17" t="n">
-        <v>764.4725515733321</v>
+        <v>982.0246946772488</v>
       </c>
       <c r="L17" t="n">
-        <v>1215.506764821741</v>
+        <v>1433.058907925657</v>
       </c>
       <c r="M17" t="n">
-        <v>1749.038669493665</v>
+        <v>1966.590812597582</v>
       </c>
       <c r="N17" t="n">
-        <v>2295.817486552447</v>
+        <v>2513.369629656364</v>
       </c>
       <c r="O17" t="n">
-        <v>2798.789957431784</v>
+        <v>3016.342100535701</v>
       </c>
       <c r="P17" t="n">
-        <v>3193.564323788962</v>
+        <v>3411.116466892879</v>
       </c>
       <c r="Q17" t="n">
-        <v>3652.04252629795</v>
+        <v>3659.402828648561</v>
       </c>
       <c r="R17" t="n">
         <v>3718.419895205363</v>
       </c>
       <c r="S17" t="n">
-        <v>3679.303676154566</v>
+        <v>3679.303676154569</v>
       </c>
       <c r="T17" t="n">
-        <v>3544.500377960898</v>
+        <v>3544.500377960901</v>
       </c>
       <c r="U17" t="n">
-        <v>3362.144350656845</v>
+        <v>3362.144350656847</v>
       </c>
       <c r="V17" t="n">
-        <v>3102.255912735384</v>
+        <v>3102.255912735386</v>
       </c>
       <c r="W17" t="n">
-        <v>2820.66170688738</v>
+        <v>2820.661706887382</v>
       </c>
       <c r="X17" t="n">
-        <v>2518.370398048411</v>
+        <v>2518.370398048412</v>
       </c>
       <c r="Y17" t="n">
-        <v>2199.405515494709</v>
+        <v>2199.40551549471</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>183.8775838647018</v>
       </c>
       <c r="H18" t="n">
-        <v>93.37568950256932</v>
+        <v>93.37568950256934</v>
       </c>
       <c r="I18" t="n">
-        <v>74.36839790410725</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J18" t="n">
         <v>168.0456673947245</v>
@@ -5607,7 +5607,7 @@
         <v>1693.807395464507</v>
       </c>
       <c r="O18" t="n">
-        <v>2104.768674882563</v>
+        <v>2104.768674882562</v>
       </c>
       <c r="P18" t="n">
         <v>2415.268266358665</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>608.8027975242953</v>
+        <v>601.2488159589618</v>
       </c>
       <c r="C19" t="n">
-        <v>511.0410640184984</v>
+        <v>503.4870824531649</v>
       </c>
       <c r="D19" t="n">
-        <v>432.0988740282727</v>
+        <v>424.5448924629391</v>
       </c>
       <c r="E19" t="n">
-        <v>355.3602298679897</v>
+        <v>347.8062483026559</v>
       </c>
       <c r="F19" t="n">
-        <v>272.0907502268551</v>
+        <v>272.0907502268554</v>
       </c>
       <c r="G19" t="n">
-        <v>175.5623630236841</v>
+        <v>175.5623630236843</v>
       </c>
       <c r="H19" t="n">
-        <v>100.5196256636519</v>
+        <v>100.519625663652</v>
       </c>
       <c r="I19" t="n">
-        <v>74.36839790410725</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J19" t="n">
         <v>119.4910303510428</v>
       </c>
       <c r="K19" t="n">
-        <v>323.4782132999191</v>
+        <v>323.4782132999192</v>
       </c>
       <c r="L19" t="n">
-        <v>640.0380117484152</v>
+        <v>640.0380117484153</v>
       </c>
       <c r="M19" t="n">
-        <v>984.1950573479642</v>
+        <v>984.1950573479643</v>
       </c>
       <c r="N19" t="n">
         <v>1325.603434053829</v>
@@ -5689,7 +5689,7 @@
         <v>1624.933032974242</v>
       </c>
       <c r="P19" t="n">
-        <v>1857.540533407901</v>
+        <v>1857.540533407902</v>
       </c>
       <c r="Q19" t="n">
         <v>1935.150829560416</v>
@@ -5710,13 +5710,13 @@
         <v>1243.952764744603</v>
       </c>
       <c r="W19" t="n">
-        <v>1025.710044129752</v>
+        <v>1018.156062564419</v>
       </c>
       <c r="X19" t="n">
-        <v>868.894942653845</v>
+        <v>861.3409610885117</v>
       </c>
       <c r="Y19" t="n">
-        <v>719.2768129324249</v>
+        <v>711.7228313670915</v>
       </c>
     </row>
     <row r="20">
@@ -5735,61 +5735,61 @@
         <v>1299.100808149756</v>
       </c>
       <c r="E20" t="n">
-        <v>984.4870049736217</v>
+        <v>984.4870049736214</v>
       </c>
       <c r="F20" t="n">
-        <v>644.6755496061242</v>
+        <v>644.6755496061238</v>
       </c>
       <c r="G20" t="n">
-        <v>300.77754887323</v>
+        <v>300.7775488732302</v>
       </c>
       <c r="H20" t="n">
-        <v>74.36839790410725</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="I20" t="n">
-        <v>74.36839790410725</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J20" t="n">
-        <v>430.6531778834857</v>
+        <v>263.2475288631326</v>
       </c>
       <c r="K20" t="n">
-        <v>764.4725515733321</v>
+        <v>597.0669025529789</v>
       </c>
       <c r="L20" t="n">
-        <v>1215.506764821741</v>
+        <v>1048.101115801388</v>
       </c>
       <c r="M20" t="n">
-        <v>1749.038669493665</v>
+        <v>1581.633020473312</v>
       </c>
       <c r="N20" t="n">
-        <v>2295.817486552447</v>
+        <v>2128.411837532094</v>
       </c>
       <c r="O20" t="n">
-        <v>2798.789957431784</v>
+        <v>3008.376487861549</v>
       </c>
       <c r="P20" t="n">
-        <v>3411.116466892878</v>
+        <v>3411.116466892879</v>
       </c>
       <c r="Q20" t="n">
-        <v>3659.40282864856</v>
+        <v>3659.402828648561</v>
       </c>
       <c r="R20" t="n">
         <v>3718.419895205363</v>
       </c>
       <c r="S20" t="n">
-        <v>3679.303676154568</v>
+        <v>3679.303676154569</v>
       </c>
       <c r="T20" t="n">
-        <v>3544.5003779609</v>
+        <v>3544.500377960901</v>
       </c>
       <c r="U20" t="n">
-        <v>3362.144350656846</v>
+        <v>3362.144350656847</v>
       </c>
       <c r="V20" t="n">
-        <v>3102.255912735385</v>
+        <v>3102.255912735386</v>
       </c>
       <c r="W20" t="n">
-        <v>2820.661706887381</v>
+        <v>2820.661706887382</v>
       </c>
       <c r="X20" t="n">
         <v>2518.370398048412</v>
@@ -5823,10 +5823,10 @@
         <v>183.8775838647018</v>
       </c>
       <c r="H21" t="n">
-        <v>93.37568950256932</v>
+        <v>93.37568950256934</v>
       </c>
       <c r="I21" t="n">
-        <v>74.36839790410725</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J21" t="n">
         <v>168.0456673947245</v>
@@ -5844,7 +5844,7 @@
         <v>1693.807395464507</v>
       </c>
       <c r="O21" t="n">
-        <v>2104.768674882562</v>
+        <v>2104.768674882563</v>
       </c>
       <c r="P21" t="n">
         <v>2415.268266358665</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>608.8027975242953</v>
+        <v>601.2488159589618</v>
       </c>
       <c r="C22" t="n">
-        <v>511.0410640184984</v>
+        <v>503.4870824531649</v>
       </c>
       <c r="D22" t="n">
-        <v>432.0988740282727</v>
+        <v>424.5448924629391</v>
       </c>
       <c r="E22" t="n">
-        <v>355.3602298679897</v>
+        <v>347.8062483026559</v>
       </c>
       <c r="F22" t="n">
-        <v>279.6447317921894</v>
+        <v>272.0907502268554</v>
       </c>
       <c r="G22" t="n">
-        <v>183.1163445890184</v>
+        <v>175.5623630236843</v>
       </c>
       <c r="H22" t="n">
-        <v>100.5196256636519</v>
+        <v>100.519625663652</v>
       </c>
       <c r="I22" t="n">
-        <v>74.36839790410725</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J22" t="n">
         <v>119.4910303510428</v>
       </c>
       <c r="K22" t="n">
-        <v>323.4782132999191</v>
+        <v>323.4782132999192</v>
       </c>
       <c r="L22" t="n">
-        <v>640.0380117484152</v>
+        <v>640.0380117484153</v>
       </c>
       <c r="M22" t="n">
-        <v>984.1950573479642</v>
+        <v>984.1950573479643</v>
       </c>
       <c r="N22" t="n">
         <v>1325.603434053829</v>
@@ -5926,7 +5926,7 @@
         <v>1624.933032974242</v>
       </c>
       <c r="P22" t="n">
-        <v>1857.540533407901</v>
+        <v>1857.540533407902</v>
       </c>
       <c r="Q22" t="n">
         <v>1935.150829560416</v>
@@ -5938,22 +5938,22 @@
         <v>1795.98338698899</v>
       </c>
       <c r="T22" t="n">
-        <v>1645.391220980626</v>
+        <v>1637.837239415293</v>
       </c>
       <c r="U22" t="n">
-        <v>1427.46280352838</v>
+        <v>1419.908821963047</v>
       </c>
       <c r="V22" t="n">
-        <v>1243.952764744603</v>
+        <v>1236.39878317927</v>
       </c>
       <c r="W22" t="n">
-        <v>1025.710044129752</v>
+        <v>1018.156062564419</v>
       </c>
       <c r="X22" t="n">
-        <v>868.894942653845</v>
+        <v>861.3409610885117</v>
       </c>
       <c r="Y22" t="n">
-        <v>719.2768129324249</v>
+        <v>711.7228313670915</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1883.980124852697</v>
+        <v>1883.980124852699</v>
       </c>
       <c r="C23" t="n">
-        <v>1586.192057334395</v>
+        <v>1586.192057334397</v>
       </c>
       <c r="D23" t="n">
-        <v>1299.100808149755</v>
+        <v>1299.100808149756</v>
       </c>
       <c r="E23" t="n">
-        <v>984.4870049736209</v>
+        <v>984.4870049736219</v>
       </c>
       <c r="F23" t="n">
-        <v>644.6755496061234</v>
+        <v>644.6755496061243</v>
       </c>
       <c r="G23" t="n">
-        <v>300.77754887323</v>
+        <v>300.7775488732302</v>
       </c>
       <c r="H23" t="n">
-        <v>74.36839790410724</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="I23" t="n">
-        <v>74.36839790410724</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J23" t="n">
-        <v>430.6531778834857</v>
+        <v>263.2475288631326</v>
       </c>
       <c r="K23" t="n">
-        <v>764.4725515733321</v>
+        <v>597.0669025529789</v>
       </c>
       <c r="L23" t="n">
-        <v>1215.506764821741</v>
+        <v>1048.101115801388</v>
       </c>
       <c r="M23" t="n">
-        <v>1749.038669493665</v>
+        <v>1581.633020473312</v>
       </c>
       <c r="N23" t="n">
-        <v>2295.817486552447</v>
+        <v>2136.377450206246</v>
       </c>
       <c r="O23" t="n">
-        <v>2798.789957431784</v>
+        <v>3016.342100535701</v>
       </c>
       <c r="P23" t="n">
-        <v>3193.564323788962</v>
+        <v>3411.116466892879</v>
       </c>
       <c r="Q23" t="n">
-        <v>3652.04252629795</v>
+        <v>3659.402828648561</v>
       </c>
       <c r="R23" t="n">
-        <v>3718.419895205362</v>
+        <v>3718.419895205363</v>
       </c>
       <c r="S23" t="n">
-        <v>3679.303676154567</v>
+        <v>3679.303676154569</v>
       </c>
       <c r="T23" t="n">
-        <v>3544.500377960899</v>
+        <v>3544.500377960901</v>
       </c>
       <c r="U23" t="n">
-        <v>3362.144350656845</v>
+        <v>3362.144350656847</v>
       </c>
       <c r="V23" t="n">
-        <v>3102.255912735385</v>
+        <v>3102.255912735386</v>
       </c>
       <c r="W23" t="n">
-        <v>2820.661706887381</v>
+        <v>2820.661706887382</v>
       </c>
       <c r="X23" t="n">
-        <v>2518.370398048411</v>
+        <v>2518.370398048412</v>
       </c>
       <c r="Y23" t="n">
-        <v>2199.405515494709</v>
+        <v>2199.40551549471</v>
       </c>
     </row>
     <row r="24">
@@ -6060,13 +6060,13 @@
         <v>183.8775838647018</v>
       </c>
       <c r="H24" t="n">
-        <v>93.37568950256932</v>
+        <v>93.37568950256934</v>
       </c>
       <c r="I24" t="n">
-        <v>74.36839790410724</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0456673947245</v>
+        <v>168.0456673947255</v>
       </c>
       <c r="K24" t="n">
         <v>406.3098663750725</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>601.2488159589611</v>
+        <v>601.2488159589618</v>
       </c>
       <c r="C25" t="n">
-        <v>503.4870824531642</v>
+        <v>503.4870824531649</v>
       </c>
       <c r="D25" t="n">
-        <v>424.5448924629385</v>
+        <v>424.5448924629391</v>
       </c>
       <c r="E25" t="n">
-        <v>347.8062483026554</v>
+        <v>347.8062483026559</v>
       </c>
       <c r="F25" t="n">
-        <v>272.0907502268551</v>
+        <v>272.0907502268554</v>
       </c>
       <c r="G25" t="n">
-        <v>175.5623630236841</v>
+        <v>175.5623630236843</v>
       </c>
       <c r="H25" t="n">
-        <v>100.5196256636519</v>
+        <v>100.519625663652</v>
       </c>
       <c r="I25" t="n">
-        <v>74.36839790410724</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J25" t="n">
         <v>119.4910303510428</v>
       </c>
       <c r="K25" t="n">
-        <v>323.4782132999191</v>
+        <v>323.4782132999192</v>
       </c>
       <c r="L25" t="n">
-        <v>640.0380117484152</v>
+        <v>640.0380117484153</v>
       </c>
       <c r="M25" t="n">
-        <v>984.1950573479642</v>
+        <v>984.1950573479643</v>
       </c>
       <c r="N25" t="n">
         <v>1325.603434053829</v>
@@ -6163,34 +6163,34 @@
         <v>1624.933032974242</v>
       </c>
       <c r="P25" t="n">
-        <v>1857.540533407901</v>
+        <v>1857.540533407902</v>
       </c>
       <c r="Q25" t="n">
         <v>1935.150829560416</v>
       </c>
       <c r="R25" t="n">
-        <v>1916.494821740054</v>
+        <v>1908.940840174721</v>
       </c>
       <c r="S25" t="n">
-        <v>1788.429405423656</v>
+        <v>1788.429405423657</v>
       </c>
       <c r="T25" t="n">
-        <v>1637.837239415292</v>
+        <v>1637.837239415293</v>
       </c>
       <c r="U25" t="n">
-        <v>1419.908821963046</v>
+        <v>1419.908821963047</v>
       </c>
       <c r="V25" t="n">
-        <v>1236.398783179269</v>
+        <v>1236.39878317927</v>
       </c>
       <c r="W25" t="n">
-        <v>1018.156062564418</v>
+        <v>1018.156062564419</v>
       </c>
       <c r="X25" t="n">
-        <v>861.3409610885108</v>
+        <v>861.3409610885117</v>
       </c>
       <c r="Y25" t="n">
-        <v>711.7228313670907</v>
+        <v>711.7228313670915</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557145</v>
@@ -6236,25 +6236,25 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2568.163811692541</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6315,7 +6315,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913849</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415478</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643401</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302712</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6415,19 +6415,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,73 +6437,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>393.29945309917</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890163</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037425</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.684944709349</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768131</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647468</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6552,7 +6552,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257047</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913849</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415478</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643401</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302712</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>822.9179334642265</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1273.952146712635</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1807.48405138456</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871311</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3977.401766380299</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6795,7 +6795,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
         <v>2189.856749167329</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1883.980124852696</v>
+        <v>1883.980124852698</v>
       </c>
       <c r="C35" t="n">
-        <v>1586.192057334395</v>
+        <v>1586.192057334396</v>
       </c>
       <c r="D35" t="n">
-        <v>1299.100808149754</v>
+        <v>1299.100808149755</v>
       </c>
       <c r="E35" t="n">
-        <v>984.4870049736201</v>
+        <v>984.4870049736211</v>
       </c>
       <c r="F35" t="n">
-        <v>644.6755496061228</v>
+        <v>644.6755496061237</v>
       </c>
       <c r="G35" t="n">
-        <v>300.7775488732302</v>
+        <v>300.7775488732301</v>
       </c>
       <c r="H35" t="n">
         <v>74.36839790410727</v>
@@ -6935,13 +6935,13 @@
         <v>74.36839790410727</v>
       </c>
       <c r="J35" t="n">
-        <v>327.3013625419494</v>
+        <v>263.2475288631326</v>
       </c>
       <c r="K35" t="n">
-        <v>982.0246946772488</v>
+        <v>917.970860998432</v>
       </c>
       <c r="L35" t="n">
-        <v>1433.058907925657</v>
+        <v>1369.005074246841</v>
       </c>
       <c r="M35" t="n">
         <v>1966.590812597582</v>
@@ -6965,22 +6965,22 @@
         <v>3679.303676154569</v>
       </c>
       <c r="T35" t="n">
-        <v>3544.5003779609</v>
+        <v>3544.500377960901</v>
       </c>
       <c r="U35" t="n">
-        <v>3362.144350656846</v>
+        <v>3362.144350656847</v>
       </c>
       <c r="V35" t="n">
-        <v>3102.255912735385</v>
+        <v>3102.255912735386</v>
       </c>
       <c r="W35" t="n">
-        <v>2820.66170688738</v>
+        <v>2820.661706887382</v>
       </c>
       <c r="X35" t="n">
-        <v>2518.37039804841</v>
+        <v>2518.370398048412</v>
       </c>
       <c r="Y35" t="n">
-        <v>2199.405515494708</v>
+        <v>2199.40551549471</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7020,13 @@
         <v>406.3098663750716</v>
       </c>
       <c r="L36" t="n">
-        <v>773.0080266877378</v>
+        <v>773.0080266877369</v>
       </c>
       <c r="M36" t="n">
-        <v>1220.284351910054</v>
+        <v>1220.284351910053</v>
       </c>
       <c r="N36" t="n">
-        <v>1693.807395464508</v>
+        <v>1693.807395464507</v>
       </c>
       <c r="O36" t="n">
         <v>2104.768674882563</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>601.2488159589618</v>
+        <v>601.2488159589616</v>
       </c>
       <c r="C37" t="n">
-        <v>503.4870824531649</v>
+        <v>503.4870824531646</v>
       </c>
       <c r="D37" t="n">
-        <v>424.5448924629391</v>
+        <v>424.5448924629389</v>
       </c>
       <c r="E37" t="n">
-        <v>347.8062483026559</v>
+        <v>347.8062483026557</v>
       </c>
       <c r="F37" t="n">
-        <v>272.0907502268554</v>
+        <v>272.0907502268553</v>
       </c>
       <c r="G37" t="n">
-        <v>175.5623630236843</v>
+        <v>175.5623630236842</v>
       </c>
       <c r="H37" t="n">
         <v>100.519625663652</v>
@@ -7120,25 +7120,25 @@
         <v>1916.494821740054</v>
       </c>
       <c r="S37" t="n">
-        <v>1788.429405423658</v>
+        <v>1795.98338698899</v>
       </c>
       <c r="T37" t="n">
-        <v>1637.837239415294</v>
+        <v>1637.837239415293</v>
       </c>
       <c r="U37" t="n">
-        <v>1419.908821963047</v>
+        <v>1419.908821963046</v>
       </c>
       <c r="V37" t="n">
-        <v>1236.39878317927</v>
+        <v>1236.398783179269</v>
       </c>
       <c r="W37" t="n">
         <v>1018.156062564419</v>
       </c>
       <c r="X37" t="n">
-        <v>861.3409610885119</v>
+        <v>861.3409610885114</v>
       </c>
       <c r="Y37" t="n">
-        <v>711.7228313670917</v>
+        <v>711.7228313670913</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1883.980124852698</v>
+        <v>1883.980124852697</v>
       </c>
       <c r="C38" t="n">
-        <v>1586.192057334396</v>
+        <v>1586.192057334395</v>
       </c>
       <c r="D38" t="n">
-        <v>1299.100808149756</v>
+        <v>1299.100808149755</v>
       </c>
       <c r="E38" t="n">
-        <v>984.4870049736214</v>
+        <v>984.4870049736207</v>
       </c>
       <c r="F38" t="n">
-        <v>644.6755496061238</v>
+        <v>644.6755496061231</v>
       </c>
       <c r="G38" t="n">
-        <v>300.7775488732302</v>
+        <v>300.7775488732301</v>
       </c>
       <c r="H38" t="n">
-        <v>74.36839790410727</v>
+        <v>74.36839790410725</v>
       </c>
       <c r="I38" t="n">
-        <v>74.36839790410727</v>
+        <v>74.36839790410725</v>
       </c>
       <c r="J38" t="n">
-        <v>430.6531778834857</v>
+        <v>263.2475288631326</v>
       </c>
       <c r="K38" t="n">
-        <v>764.4725515733321</v>
+        <v>917.970860998432</v>
       </c>
       <c r="L38" t="n">
-        <v>1215.506764821741</v>
+        <v>1369.005074246841</v>
       </c>
       <c r="M38" t="n">
-        <v>1749.038669493665</v>
+        <v>1966.590812597581</v>
       </c>
       <c r="N38" t="n">
-        <v>2295.817486552447</v>
+        <v>2513.369629656363</v>
       </c>
       <c r="O38" t="n">
-        <v>2798.789957431784</v>
+        <v>3016.3421005357</v>
       </c>
       <c r="P38" t="n">
-        <v>3346.057211218626</v>
+        <v>3411.116466892878</v>
       </c>
       <c r="Q38" t="n">
-        <v>3594.343572974308</v>
+        <v>3659.40282864856</v>
       </c>
       <c r="R38" t="n">
         <v>3718.419895205363</v>
       </c>
       <c r="S38" t="n">
-        <v>3679.303676154569</v>
+        <v>3679.303676154567</v>
       </c>
       <c r="T38" t="n">
-        <v>3544.500377960901</v>
+        <v>3544.500377960899</v>
       </c>
       <c r="U38" t="n">
-        <v>3362.144350656847</v>
+        <v>3362.144350656846</v>
       </c>
       <c r="V38" t="n">
-        <v>3102.255912735386</v>
+        <v>3102.255912735385</v>
       </c>
       <c r="W38" t="n">
-        <v>2820.661706887382</v>
+        <v>2820.661706887381</v>
       </c>
       <c r="X38" t="n">
-        <v>2518.370398048412</v>
+        <v>2518.370398048411</v>
       </c>
       <c r="Y38" t="n">
-        <v>2199.40551549471</v>
+        <v>2199.405515494709</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>183.8775838647018</v>
       </c>
       <c r="H39" t="n">
-        <v>93.37568950256934</v>
+        <v>93.37568950256932</v>
       </c>
       <c r="I39" t="n">
-        <v>74.36839790410727</v>
+        <v>74.36839790410725</v>
       </c>
       <c r="J39" t="n">
         <v>168.0456673947245</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>601.2488159589618</v>
+        <v>601.2488159589616</v>
       </c>
       <c r="C40" t="n">
-        <v>503.4870824531649</v>
+        <v>503.4870824531646</v>
       </c>
       <c r="D40" t="n">
-        <v>424.5448924629391</v>
+        <v>424.5448924629389</v>
       </c>
       <c r="E40" t="n">
-        <v>347.8062483026559</v>
+        <v>347.8062483026557</v>
       </c>
       <c r="F40" t="n">
-        <v>272.0907502268554</v>
+        <v>272.0907502268553</v>
       </c>
       <c r="G40" t="n">
-        <v>175.5623630236843</v>
+        <v>175.5623630236842</v>
       </c>
       <c r="H40" t="n">
         <v>100.519625663652</v>
       </c>
       <c r="I40" t="n">
-        <v>74.36839790410727</v>
+        <v>74.36839790410725</v>
       </c>
       <c r="J40" t="n">
         <v>119.4910303510428</v>
       </c>
       <c r="K40" t="n">
-        <v>323.4782132999192</v>
+        <v>323.4782132999191</v>
       </c>
       <c r="L40" t="n">
-        <v>640.0380117484153</v>
+        <v>640.0380117484152</v>
       </c>
       <c r="M40" t="n">
-        <v>984.1950573479643</v>
+        <v>984.1950573479642</v>
       </c>
       <c r="N40" t="n">
         <v>1325.603434053829</v>
@@ -7348,7 +7348,7 @@
         <v>1624.933032974242</v>
       </c>
       <c r="P40" t="n">
-        <v>1857.540533407902</v>
+        <v>1857.540533407901</v>
       </c>
       <c r="Q40" t="n">
         <v>1935.150829560416</v>
@@ -7363,19 +7363,19 @@
         <v>1645.391220980626</v>
       </c>
       <c r="U40" t="n">
-        <v>1427.46280352838</v>
+        <v>1427.462803528379</v>
       </c>
       <c r="V40" t="n">
-        <v>1243.952764744603</v>
+        <v>1243.952764744602</v>
       </c>
       <c r="W40" t="n">
         <v>1025.710044129752</v>
       </c>
       <c r="X40" t="n">
-        <v>868.8949426538446</v>
+        <v>868.8949426538443</v>
       </c>
       <c r="Y40" t="n">
-        <v>711.7228313670917</v>
+        <v>711.7228313670913</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1570.289398767135</v>
+        <v>1369.318056916146</v>
       </c>
       <c r="C41" t="n">
-        <v>1248.776514774796</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="D41" t="n">
-        <v>1248.776514774796</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="E41" t="n">
-        <v>910.4378951246254</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F41" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G41" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U41" t="n">
-        <v>3167.077706941466</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V41" t="n">
-        <v>2883.464452545968</v>
+        <v>2682.49311069498</v>
       </c>
       <c r="W41" t="n">
-        <v>2578.145430223928</v>
+        <v>2377.174088372939</v>
       </c>
       <c r="X41" t="n">
-        <v>2252.129304910921</v>
+        <v>2051.157963059933</v>
       </c>
       <c r="Y41" t="n">
-        <v>1909.439605883183</v>
+        <v>1708.468264032194</v>
       </c>
     </row>
     <row r="42">
@@ -7488,7 +7488,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031482</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G43" t="n">
         <v>215.1557144998336</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>158.1401341315256</v>
@@ -7573,7 +7573,7 @@
         <v>408.6327023328086</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7612,7 +7612,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C44" t="n">
-        <v>1696.959858232655</v>
+        <v>979.854635471874</v>
       </c>
       <c r="D44" t="n">
-        <v>1386.143792573978</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="E44" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F44" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W44" t="n">
-        <v>3026.328773681787</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X44" t="n">
-        <v>2700.31264836878</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y44" t="n">
-        <v>2357.622949341042</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7740,7 +7740,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.41198488674</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C46" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G46" t="n">
         <v>215.1557144998336</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M46" t="n">
         <v>1162.360316885667</v>
@@ -7825,13 +7825,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T46" t="n">
         <v>1938.403572105846</v>
@@ -7849,7 +7849,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>215.5422382052345</v>
+        <v>215.5422382052332</v>
       </c>
       <c r="L8" t="n">
-        <v>230.1246991148476</v>
+        <v>230.124699114846</v>
       </c>
       <c r="M8" t="n">
-        <v>224.0687372961618</v>
+        <v>224.06873729616</v>
       </c>
       <c r="N8" t="n">
-        <v>223.0339912183947</v>
+        <v>223.0339912183928</v>
       </c>
       <c r="O8" t="n">
-        <v>224.074634264152</v>
+        <v>224.0746342641503</v>
       </c>
       <c r="P8" t="n">
-        <v>226.0920120116965</v>
+        <v>226.092012011695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>125.0304248509038</v>
+        <v>125.0304248509033</v>
       </c>
       <c r="K9" t="n">
-        <v>134.7526432243501</v>
+        <v>134.7526432243492</v>
       </c>
       <c r="L9" t="n">
-        <v>134.4011127129162</v>
+        <v>134.401112712915</v>
       </c>
       <c r="M9" t="n">
-        <v>137.2873671518302</v>
+        <v>137.2873671518288</v>
       </c>
       <c r="N9" t="n">
-        <v>126.3667684654454</v>
+        <v>126.3667684654439</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0451429682043</v>
+        <v>138.0451429682029</v>
       </c>
       <c r="P9" t="n">
-        <v>130.3217472474538</v>
+        <v>130.3217472474528</v>
       </c>
       <c r="Q9" t="n">
-        <v>137.5400674964498</v>
+        <v>137.5400674964492</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>132.5004865276015</v>
+        <v>132.5004865276008</v>
       </c>
       <c r="M10" t="n">
-        <v>136.4119901404655</v>
+        <v>136.4119901404648</v>
       </c>
       <c r="N10" t="n">
-        <v>125.231523056222</v>
+        <v>125.2315230562213</v>
       </c>
       <c r="O10" t="n">
-        <v>136.1898524857461</v>
+        <v>136.1898524857454</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>219.7496394989058</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.434648839000786</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>219.7496394989054</v>
+        <v>8.046073408234179</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>8.04607340823452</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7.434648838999408</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,16 +9884,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>287.0017854473921</v>
+        <v>190.2350110279889</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473921</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>221.2853655744097</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>21.13839585591467</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>64.70084209981491</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>64.70084209981508</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>64.70084209981417</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>154.0332196259233</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.26698689583534</v>
+        <v>15.26698689583533</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843724</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>243.146084073835</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796488</v>
       </c>
       <c r="D14" t="n">
-        <v>286.758676502253</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25451,7 +25451,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>135.99360502119</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>67.27103207741382</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>127.3463093107765</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>5.981554650711132</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>719284.1249811916</v>
+        <v>719284.124981191</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602270.6361048253</v>
+        <v>602270.6361048252</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>798794.4302491123</v>
+      </c>
+      <c r="C2" t="n">
         <v>798794.4302491122</v>
-      </c>
-      <c r="C2" t="n">
-        <v>798794.4302491124</v>
       </c>
       <c r="D2" t="n">
         <v>798797.2048546759</v>
       </c>
       <c r="E2" t="n">
+        <v>745417.7346425962</v>
+      </c>
+      <c r="F2" t="n">
         <v>745417.734642596</v>
       </c>
-      <c r="F2" t="n">
-        <v>745417.7346425963</v>
-      </c>
       <c r="G2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="H2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="I2" t="n">
+        <v>800515.7256176756</v>
+      </c>
+      <c r="J2" t="n">
         <v>800515.7256176764</v>
       </c>
-      <c r="H2" t="n">
-        <v>800515.7256176763</v>
-      </c>
-      <c r="I2" t="n">
-        <v>800515.7256176767</v>
-      </c>
-      <c r="J2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="K2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="L2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="O2" t="n">
-        <v>745417.7346425961</v>
+        <v>745417.7346425962</v>
       </c>
       <c r="P2" t="n">
-        <v>745417.7346425962</v>
+        <v>745417.734642596</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7616.061055640177</v>
+        <v>7616.061055642378</v>
       </c>
       <c r="E3" t="n">
-        <v>1154203.527626922</v>
+        <v>1154203.52762692</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>45706.16598784022</v>
+        <v>45706.16598784008</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40959.53993862579</v>
+        <v>40959.5399386257</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18790.05464743709</v>
+        <v>18790.05464743704</v>
       </c>
       <c r="M3" t="n">
         <v>204863.1973516677</v>
@@ -26421,43 +26421,43 @@
         <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>428508.919071044</v>
+        <v>428508.9190710432</v>
       </c>
       <c r="E4" t="n">
-        <v>57605.61344858621</v>
+        <v>57605.61344858623</v>
       </c>
       <c r="F4" t="n">
-        <v>57605.61344858623</v>
+        <v>57605.61344858619</v>
       </c>
       <c r="G4" t="n">
-        <v>84856.50398636865</v>
+        <v>84856.5039863686</v>
       </c>
       <c r="H4" t="n">
-        <v>84856.50398636864</v>
+        <v>84856.5039863686</v>
       </c>
       <c r="I4" t="n">
-        <v>84856.5039863686</v>
+        <v>84856.50398636861</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="K4" t="n">
         <v>80755.36360646597</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="M4" t="n">
-        <v>84856.5039863686</v>
+        <v>84856.50398636863</v>
       </c>
       <c r="N4" t="n">
         <v>84856.5039863686</v>
       </c>
       <c r="O4" t="n">
-        <v>57605.61344858627</v>
+        <v>57605.61344858625</v>
       </c>
       <c r="P4" t="n">
-        <v>57605.61344858627</v>
+        <v>57605.61344858625</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33821.46667080752</v>
+        <v>33821.46667080758</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178175</v>
@@ -26488,28 +26488,28 @@
         <v>86200.8436206381</v>
       </c>
       <c r="I5" t="n">
-        <v>86200.84362063809</v>
+        <v>86200.8436206381</v>
       </c>
       <c r="J5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
-      <c r="K5" t="n">
-        <v>89377.9416748061</v>
-      </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>86200.8436206381</v>
       </c>
       <c r="N5" t="n">
-        <v>86200.8436206381</v>
+        <v>86200.84362063809</v>
       </c>
       <c r="O5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178175</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>334268.3208064364</v>
+        <v>334263.9072285683</v>
       </c>
       <c r="C6" t="n">
-        <v>334268.3208064366</v>
+        <v>334263.9072285682</v>
       </c>
       <c r="D6" t="n">
-        <v>328850.7580571842</v>
+        <v>328846.3515936878</v>
       </c>
       <c r="E6" t="n">
-        <v>-544646.8997546938</v>
+        <v>-544788.1766546274</v>
       </c>
       <c r="F6" t="n">
-        <v>609556.6278722284</v>
+        <v>609415.3509722919</v>
       </c>
       <c r="G6" t="n">
-        <v>583752.2120228293</v>
+        <v>583752.21202283</v>
       </c>
       <c r="H6" t="n">
-        <v>629458.3780106695</v>
+        <v>629458.3780106697</v>
       </c>
       <c r="I6" t="n">
-        <v>629458.37801067</v>
+        <v>629458.3780106688</v>
       </c>
       <c r="J6" t="n">
-        <v>589422.8803977782</v>
+        <v>589422.8803977786</v>
       </c>
       <c r="K6" t="n">
-        <v>630382.4203364042</v>
+        <v>630382.4203364039</v>
       </c>
       <c r="L6" t="n">
         <v>611592.3656889673</v>
       </c>
       <c r="M6" t="n">
-        <v>424595.1806590013</v>
+        <v>424595.1806590012</v>
       </c>
       <c r="N6" t="n">
-        <v>629458.3780106697</v>
+        <v>629458.378010669</v>
       </c>
       <c r="O6" t="n">
-        <v>609556.627872228</v>
+        <v>609415.3509722921</v>
       </c>
       <c r="P6" t="n">
-        <v>609556.6278722282</v>
+        <v>609415.3509722919</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="H2" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="I2" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="N2" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.892966550803907</v>
+        <v>8.892966550806477</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>929.6049738013407</v>
+        <v>929.6049738013409</v>
       </c>
       <c r="H4" t="n">
-        <v>929.6049738013407</v>
+        <v>929.6049738013409</v>
       </c>
       <c r="I4" t="n">
-        <v>929.6049738013404</v>
+        <v>929.6049738013409</v>
       </c>
       <c r="J4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="K4" t="n">
         <v>1014.336461208615</v>
       </c>
-      <c r="K4" t="n">
-        <v>1014.336461208614</v>
-      </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>929.6049738013409</v>
       </c>
       <c r="N4" t="n">
-        <v>929.6049738013409</v>
+        <v>929.6049738013406</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>23.48756830929636</v>
+        <v>23.48756830929626</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.48756830929619</v>
+        <v>23.48756830929628</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>23.48756830929636</v>
+        <v>23.4875683092963</v>
       </c>
       <c r="M2" t="n">
-        <v>23.48756830929623</v>
+        <v>23.48756830929627</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.892966550803907</v>
+        <v>8.892966550806477</v>
       </c>
       <c r="E3" t="n">
-        <v>1080.883734042494</v>
+        <v>1080.883734042492</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>98.20351839904822</v>
+        <v>98.20351839904799</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>84.73148740727413</v>
+        <v>84.73148740727356</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.6699679950192</v>
+        <v>746.6699679950187</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>23.48756830929636</v>
+        <v>23.48756830929626</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.48756830929619</v>
+        <v>23.48756830929628</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>98.20351839904822</v>
+        <v>98.20351839904799</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.1086710858639</v>
+        <v>339.1086710858638</v>
       </c>
       <c r="I8" t="n">
-        <v>209.0976138198537</v>
+        <v>209.0976138198533</v>
       </c>
       <c r="J8" t="n">
-        <v>8.915000229823399</v>
+        <v>8.915000229822521</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.130034524642793</v>
+        <v>6.130034524641677</v>
       </c>
       <c r="R8" t="n">
-        <v>147.623398101564</v>
+        <v>147.6233981015634</v>
       </c>
       <c r="S8" t="n">
-        <v>208.2054023489531</v>
+        <v>208.2054023489529</v>
       </c>
       <c r="T8" t="n">
         <v>222.9393512281468</v>
@@ -27950,7 +27950,7 @@
         <v>112.0507054407901</v>
       </c>
       <c r="I9" t="n">
-        <v>88.73804995119045</v>
+        <v>88.73804995119026</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>98.97020363855653</v>
+        <v>98.97020363855619</v>
       </c>
       <c r="S9" t="n">
-        <v>171.32787192136</v>
+        <v>171.3278719213598</v>
       </c>
       <c r="T9" t="n">
-        <v>200.0876283527444</v>
+        <v>200.0876283527443</v>
       </c>
       <c r="U9" t="n">
         <v>225.940123642312</v>
@@ -28029,13 +28029,13 @@
         <v>162.0845934699529</v>
       </c>
       <c r="I10" t="n">
-        <v>154.9682137247983</v>
+        <v>154.9682137247981</v>
       </c>
       <c r="J10" t="n">
-        <v>92.22539977461372</v>
+        <v>92.22539977461339</v>
       </c>
       <c r="K10" t="n">
-        <v>20.40634244032098</v>
+        <v>20.40634244032045</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7818993090098707</v>
+        <v>0.78189930900931</v>
       </c>
       <c r="Q10" t="n">
-        <v>84.81920530252299</v>
+        <v>84.8192053025226</v>
       </c>
       <c r="R10" t="n">
-        <v>176.5723321548699</v>
+        <v>176.5723321548697</v>
       </c>
       <c r="S10" t="n">
-        <v>223.737125629138</v>
+        <v>223.7371256291379</v>
       </c>
       <c r="T10" t="n">
         <v>227.8770698499392</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="14">
@@ -28345,7 +28345,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859278</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
         <v>46.97513661859256</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="C17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="D17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="E17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="F17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="G17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="H17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="T17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="U17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="V17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="W17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="X17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="Y17" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="C19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="D19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="E19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="F19" t="n">
-        <v>62.98426317820801</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="G19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="H19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="I19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="S19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="T19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="U19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="V19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="W19" t="n">
-        <v>70.46270492788892</v>
+        <v>62.98426317820923</v>
       </c>
       <c r="X19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="C20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="D20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="E20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="F20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="G20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="H20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="T20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="U20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="V20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="W20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="X20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="Y20" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="C22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="D22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="E22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="F22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="G22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="H22" t="n">
-        <v>62.984263178208</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="I22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="S22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="T22" t="n">
-        <v>70.46270492788892</v>
+        <v>62.98426317820926</v>
       </c>
       <c r="U22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="V22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="W22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="X22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="C23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="D23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="E23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="F23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="G23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="H23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="T23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="U23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="V23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="W23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="X23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="Y23" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="C25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="D25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="E25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="F25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="G25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="H25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="I25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>70.46270492788892</v>
+        <v>62.98426317820925</v>
       </c>
       <c r="S25" t="n">
-        <v>62.984263178208</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="T25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="U25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="V25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="W25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="X25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.46270492788892</v>
+        <v>70.46270492788882</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="C35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="D35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="E35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="F35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="G35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="H35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="T35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="U35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="V35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="W35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="X35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="Y35" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="C37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="D37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="E37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="F37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="G37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="H37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="I37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="S37" t="n">
-        <v>62.98426317820957</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="T37" t="n">
-        <v>70.46270492788881</v>
+        <v>62.98426317820881</v>
       </c>
       <c r="U37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="V37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="W37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="X37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="C38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="D38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="E38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="F38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="G38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="H38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="T38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="U38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="V38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="W38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="X38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="Y38" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="C40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="D40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="E40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="F40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="G40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="H40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="I40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,25 +30426,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="S40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="T40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="U40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="V40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="W40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="X40" t="n">
-        <v>70.46270492788881</v>
+        <v>70.46270492788885</v>
       </c>
       <c r="Y40" t="n">
         <v>62.98426317820937</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03575061929971417</v>
+        <v>0.03575061929972451</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3661310299031978</v>
+        <v>0.3661310299033037</v>
       </c>
       <c r="I8" t="n">
-        <v>1.378275750552232</v>
+        <v>1.37827575055263</v>
       </c>
       <c r="J8" t="n">
-        <v>3.034289124789118</v>
+        <v>3.034289124789995</v>
       </c>
       <c r="K8" t="n">
-        <v>4.54761283974602</v>
+        <v>4.547612839747335</v>
       </c>
       <c r="L8" t="n">
-        <v>5.641715855139649</v>
+        <v>5.641715855141279</v>
       </c>
       <c r="M8" t="n">
-        <v>6.27749593111094</v>
+        <v>6.277495931112755</v>
       </c>
       <c r="N8" t="n">
-        <v>6.379072378196254</v>
+        <v>6.379072378198098</v>
       </c>
       <c r="O8" t="n">
-        <v>6.023577157534721</v>
+        <v>6.023577157536462</v>
       </c>
       <c r="P8" t="n">
-        <v>5.140983743573027</v>
+        <v>5.140983743574512</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.860664689902011</v>
+        <v>3.860664689903127</v>
       </c>
       <c r="R8" t="n">
-        <v>2.245719839585672</v>
+        <v>2.245719839586322</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8146672372922374</v>
+        <v>0.8146672372924729</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1564983359844989</v>
+        <v>0.1564983359845441</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002860049543977133</v>
+        <v>0.00286004954397796</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01912826767531407</v>
+        <v>0.01912826767531959</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1847387957063227</v>
+        <v>0.1847387957063761</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6585829002246291</v>
+        <v>0.6585829002248194</v>
       </c>
       <c r="J9" t="n">
-        <v>1.807201815762896</v>
+        <v>1.807201815763418</v>
       </c>
       <c r="K9" t="n">
-        <v>3.088795750008938</v>
+        <v>3.088795750009831</v>
       </c>
       <c r="L9" t="n">
-        <v>4.153267066957995</v>
+        <v>4.153267066959195</v>
       </c>
       <c r="M9" t="n">
-        <v>4.846666770188128</v>
+        <v>4.84666677018953</v>
       </c>
       <c r="N9" t="n">
-        <v>4.974943617887933</v>
+        <v>4.974943617889371</v>
       </c>
       <c r="O9" t="n">
-        <v>4.551101476240184</v>
+        <v>4.5511014762415</v>
       </c>
       <c r="P9" t="n">
-        <v>3.65266016687642</v>
+        <v>3.652660166877476</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.441706589571669</v>
+        <v>2.441706589572375</v>
       </c>
       <c r="R9" t="n">
-        <v>1.187630514086605</v>
+        <v>1.187630514086949</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3552991824778728</v>
+        <v>0.3552991824779755</v>
       </c>
       <c r="T9" t="n">
-        <v>0.07710034207725271</v>
+        <v>0.07710034207727499</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00125843866284961</v>
+        <v>0.001258438662849974</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01603649705882671</v>
+        <v>0.01603649705883135</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1425790374866595</v>
+        <v>0.1425790374867007</v>
       </c>
       <c r="I10" t="n">
-        <v>0.482261202459989</v>
+        <v>0.4822612024601284</v>
       </c>
       <c r="J10" t="n">
-        <v>1.133780342059049</v>
+        <v>1.133780342059376</v>
       </c>
       <c r="K10" t="n">
-        <v>1.863149385561867</v>
+        <v>1.863149385562406</v>
       </c>
       <c r="L10" t="n">
-        <v>2.384189753636838</v>
+        <v>2.384189753637527</v>
       </c>
       <c r="M10" t="n">
-        <v>2.513793807139537</v>
+        <v>2.513793807140263</v>
       </c>
       <c r="N10" t="n">
-        <v>2.454021409011184</v>
+        <v>2.454021409011894</v>
       </c>
       <c r="O10" t="n">
-        <v>2.266685966096708</v>
+        <v>2.266685966097363</v>
       </c>
       <c r="P10" t="n">
-        <v>1.939541426096641</v>
+        <v>1.939541426097202</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.34283794917139</v>
+        <v>1.342837949171778</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7210592222996083</v>
+        <v>0.7210592222998168</v>
       </c>
       <c r="S10" t="n">
-        <v>0.27947240783428</v>
+        <v>0.2794724078343608</v>
       </c>
       <c r="T10" t="n">
-        <v>0.06851957834225958</v>
+        <v>0.06851957834227938</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0008747180213905491</v>
+        <v>0.0008747180213908019</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32327,10 +32327,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970257</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987486</v>
@@ -32564,13 +32564,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970257</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32786,10 +32786,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026447</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353166</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33041,7 +33041,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837924</v>
@@ -33278,7 +33278,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33515,10 +33515,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138804</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970257</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34436,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34475,7 +34475,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34524,16 +34524,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34542,19 +34542,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35574,16 +35574,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629123</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35884,7 +35884,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>556.9409260543061</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923319</v>
@@ -35902,10 +35902,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>67.04784738122551</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525813</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127271</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36133,10 +36133,10 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>618.5116257182771</v>
+        <v>406.8080596276058</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
@@ -36212,13 +36212,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525813</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>560.3479088211458</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>67.04784738122413</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597797</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609576</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36604,16 +36604,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>795.0547863356111</v>
+        <v>698.2880119162079</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.305592123718</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>795.0547863356111</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004591</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>558.4766521298101</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>80.75159439813939</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.4878430685274</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265651</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>603.6219579300416</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340062</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525813</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>603.6219579300407</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37558,13 +37558,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>552.795205845295</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120763</v>
